--- a/Manuscript/Tables/Table3-SurfComplComp.xlsx
+++ b/Manuscript/Tables/Table3-SurfComplComp.xlsx
@@ -423,13 +423,13 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-16.7</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" t="s">
